--- a/biology/Botanique/Billbergia_distachya/Billbergia_distachya.xlsx
+++ b/biology/Botanique/Billbergia_distachya/Billbergia_distachya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Billbergia distachya est une espèce de plantes de la famille des Bromeliaceae, endémique du Brésil.
 </t>
@@ -511,20 +523,22 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Billbergia amoena var. cernua Beer ex E.Morren[1] ;
-Billbergia bakeri E.Morren[1] ;
-Billbergia bakeri var. straussiana Wittm.[1] ;
-Billbergia burchellii Baker[1] ;
-Billbergia caespitosa Lindm.[1] ;
-Billbergia distachya var. straussiana (Wittm.) L.B.Sm.[1] ;
-Billbergia ensifolia Baker[1] ;
-Billbergia pallescens Baker[1] ;
-Billbergia regeliana Mez[1] ;
-Pitcairnia distachya (Vell.) Beer[1] ;
-Tillandsia distachya Vell.[1].
+Billbergia amoena var. cernua Beer ex E.Morren ;
+Billbergia bakeri E.Morren ;
+Billbergia bakeri var. straussiana Wittm. ;
+Billbergia burchellii Baker ;
+Billbergia caespitosa Lindm. ;
+Billbergia distachya var. straussiana (Wittm.) L.B.Sm. ;
+Billbergia ensifolia Baker ;
+Billbergia pallescens Baker ;
+Billbergia regeliana Mez ;
+Pitcairnia distachya (Vell.) Beer ;
+Tillandsia distachya Vell..
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Billbergia 'Albertii'
@@ -598,9 +614,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique des régions du sud et du sud-est du Brésil[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique des régions du sud et du sud-est du Brésil.
 </t>
         </is>
       </c>
@@ -629,9 +647,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
